--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISK3F\Downloads\Event-Schedule-Builder-main\Event-Schedule-Builder-main\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ISK3F\PycharmProjects\HelloWorld\demoprojects\Event-Schedule-Builder-main\Event-Schedule-Builder-main\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E495E-220D-42D8-A0E2-397225224A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF91395-2CA8-4423-B822-4B168D9771BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="225" windowWidth="15645" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
   </si>
   <si>
     <t>Equipment</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -191,42 +192,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -239,8 +227,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,14 +524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="1.875" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
@@ -540,199 +540,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="55.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" ht="28.5" customHeight="1">
       <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="13"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="58.5" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="17"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1">
       <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="57" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="58.5" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="29.25" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="58.5" customHeight="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="17"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="56.25" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="29.25" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="58.5" customHeight="1">
+      <c r="B10" s="6"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="17"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="13" orientation="portrait" r:id="rId1"/>
